--- a/xlsx/美国家庭结构_intext.xlsx
+++ b/xlsx/美国家庭结构_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="390">
   <si>
     <t>美国家庭结构</t>
   </si>
@@ -29,7 +29,7 @@
     <t>美国</t>
   </si>
   <si>
-    <t>政策_政策_美國_美国家庭结构</t>
+    <t>政策_政策_美国_美国家庭结构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%B6%E5%BA%AD</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AA%E6%88%90%E5%B9%B4%E6%87%B7%E5%AD%95</t>
   </si>
   <si>
-    <t>未成年懷孕</t>
+    <t>未成年怀孕</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%B6%E9%A4%8A</t>
   </si>
   <si>
-    <t>收養</t>
+    <t>收养</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E6%9D%83%E8%BF%90%E5%8A%A8</t>
@@ -101,13 +101,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%A3%E7%94%A2</t>
   </si>
   <si>
-    <t>難產</t>
+    <t>难产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B9%BC%E8%A6%AA</t>
   </si>
   <si>
-    <t>繼親</t>
+    <t>继亲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E5%8F%A3%E8%B0%83%E6%9F%A5%E5%B1%80</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%B6%E5%BA%AD%E4%B8%BB%E5%A9%A6</t>
   </si>
   <si>
-    <t>家庭主婦</t>
+    <t>家庭主妇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A6%E7%BF%BC</t>
@@ -149,7 +149,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%AC%8A%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>民權運動</t>
+    <t>民权运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%B9%E9%9D%A9%E5%BC%80%E6%94%BE</t>
@@ -191,13 +191,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%BA%E5%82%B3%E7%97%85</t>
   </si>
   <si>
-    <t>遺傳病</t>
+    <t>遗传病</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/LGBT%E6%94%B6%E9%A4%8A</t>
   </si>
   <si>
-    <t>LGBT收養</t>
+    <t>LGBT收养</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%9E</t>
@@ -221,7 +221,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E6%80%A7%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>女性主義</t>
+    <t>女性主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E8%A3%94%E7%BE%8E%E5%9B%BD%E4%BA%BA</t>
@@ -275,7 +275,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E7%88%BE%E8%8E%AB%E5%A5%B3%E5%AD%A9</t>
   </si>
   <si>
-    <t>吉爾莫女孩</t>
+    <t>吉尔莫女孩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%95%E8%BA%AB%E6%AF%92%E5%A6%88</t>
@@ -317,7 +317,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E5%93%A5%E5%80%AB%E5%B8%83%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>前哥倫布時期</t>
+    <t>前哥伦布时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%B8%89%E6%AE%96%E6%B0%91%E5%9C%B0</t>
@@ -341,7 +341,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A0%98%E5%9C%9F%E8%AE%8A%E9%81%B7</t>
   </si>
   <si>
-    <t>美國領土變遷</t>
+    <t>美国领土变迁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E6%88%98</t>
@@ -389,7 +389,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E7%81%A3%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>波斯灣戰爭</t>
+    <t>波斯湾战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%81%90%E6%88%98%E4%BA%89</t>
@@ -401,7 +401,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E6%B5%B7%E5%98%AF</t>
   </si>
   <si>
-    <t>金融海嘯</t>
+    <t>金融海啸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E5%8F%A3</t>
@@ -431,7 +431,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%83%B5%E6%94%BF%E7%BD%B2</t>
   </si>
   <si>
-    <t>美國郵政署</t>
+    <t>美国邮政署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A7%91%E5%AD%A6%E6%8A%80%E6%9C%AF</t>
@@ -467,7 +467,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B%E5%88%86%E7%AB%8B</t>
   </si>
   <si>
-    <t>權力分立</t>
+    <t>权力分立</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
@@ -503,7 +503,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%A9%9F%E6%A7%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國聯邦機構列表</t>
+    <t>美国联邦机构列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F</t>
@@ -533,7 +533,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%94%BF%E5%BA%9C%E7%8D%A8%E7%AB%8B%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>美國政府獨立機構</t>
+    <t>美国政府独立机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
@@ -575,13 +575,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%83%85%E5%A0%B1%E9%AB%94%E7%B3%BB</t>
   </si>
   <si>
-    <t>美國情報體系</t>
+    <t>美国情报体系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E6%83%85%E5%A0%B1%E7%B8%BD%E7%9B%A3</t>
   </si>
   <si>
-    <t>國家情報總監</t>
+    <t>国家情报总监</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E6%83%85%E6%8A%A5%E5%B1%80</t>
@@ -593,13 +593,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%98%B2%E6%83%85%E5%A0%B1%E5%B1%80</t>
   </si>
   <si>
-    <t>國防情報局</t>
+    <t>国防情报局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%9C%B0%E7%90%86%E7%A9%BA%E9%96%93%E6%83%85%E5%A0%B1%E5%B1%80</t>
   </si>
   <si>
-    <t>美國國家地理空間情報局</t>
+    <t>美国国家地理空间情报局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E4%BE%A6%E5%AF%9F%E5%B1%80</t>
@@ -647,7 +647,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%B0%91%E8%AD%A6%E8%A1%9B%E9%9A%8A</t>
   </si>
   <si>
-    <t>美國國民警衛隊</t>
+    <t>美国国民警卫队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E6%B2%BB</t>
@@ -659,7 +659,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>美國選舉</t>
+    <t>美国选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%80%89%E4%B8%BE%E4%BA%BA%E5%9B%A2</t>
@@ -701,7 +701,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%AC%AC51%E5%B7%9E</t>
   </si>
   <si>
-    <t>美國第51州</t>
+    <t>美国第51州</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Political_status_of_Puerto_Rico</t>
@@ -713,7 +713,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E5%B7%9E%E8%88%87%E8%97%8D%E5%B7%9E</t>
   </si>
   <si>
-    <t>紅州與藍州</t>
+    <t>红州与蓝州</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Purple_America</t>
@@ -743,7 +743,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E7%A3%AF%E5%B1%B1%E8%84%88</t>
   </si>
   <si>
-    <t>洛磯山脈</t>
+    <t>洛矶山脉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD%E5%88%97%E8%A1%A8</t>
@@ -755,13 +755,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>美國地區</t>
+    <t>美国地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
   </si>
   <si>
-    <t>新英格蘭</t>
+    <t>新英格兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%9C%B0%E5%8C%BA</t>
@@ -773,13 +773,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8D%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國南部</t>
+    <t>美国南部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%AD%E8%A5%BF%E9%83%A8</t>
   </si>
   <si>
-    <t>美國中西部</t>
+    <t>美国中西部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%A4%A7%E5%B9%B3%E5%8E%9F</t>
@@ -791,13 +791,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8C%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國西北部</t>
+    <t>美国西北部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8D%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國西南部</t>
+    <t>美国西南部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B2%B3%E6%B5%81%E5%88%97%E8%A1%A8</t>
@@ -845,7 +845,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%A2</t>
   </si>
   <si>
-    <t>美國夢</t>
+    <t>美国梦</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_States_federal_budget</t>
@@ -857,13 +857,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%84%B2%E5%82%99%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>聯邦儲備系統</t>
+    <t>联邦储备系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9A%84%E5%B7%A5%E6%9C%83</t>
   </si>
   <si>
-    <t>美國的工會</t>
+    <t>美国的工会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Social_programs_in_the_United_States</t>
@@ -875,7 +875,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%82%B5</t>
   </si>
   <si>
-    <t>美國國債</t>
+    <t>美国国债</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Taxation_in_the_United_States</t>
@@ -887,7 +887,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%A4%E9%80%9A</t>
   </si>
   <si>
-    <t>美國交通</t>
+    <t>美国交通</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%BA%E5%9C%BA%E5%88%97%E8%A1%A8</t>
@@ -899,13 +899,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E9%81%93</t>
   </si>
   <si>
-    <t>美國國道</t>
+    <t>美国国道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>州際公路系統</t>
+    <t>州际公路系统</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Unemployment_in_the_United_States</t>
@@ -929,7 +929,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>美國社會</t>
+    <t>美国社会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8A%AF%E7%BD%AA</t>
@@ -1001,15 +1001,12 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83%E9%9A%8E%E5%B1%A4</t>
   </si>
   <si>
-    <t>美國社會階層</t>
+    <t>美国社会阶层</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%A2%A6</t>
   </si>
   <si>
-    <t>美国梦</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BD%93%E8%82%B2</t>
   </si>
   <si>
@@ -1019,7 +1016,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8BLGBT%E6%AC%8A%E7%9B%8A</t>
   </si>
   <si>
-    <t>美國LGBT權益</t>
+    <t>美国LGBT权益</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%96%87%E5%8C%96</t>
@@ -1061,7 +1058,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A3%B2%E9%A3%9F%E6%96%87%E5%8C%96</t>
   </si>
   <si>
-    <t>美國飲食文化</t>
+    <t>美国饮食文化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E6%97%97</t>
@@ -1097,7 +1094,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
-    <t>美國電視</t>
+    <t>美国电视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%94%B5%E5%BD%B1</t>
@@ -1115,7 +1112,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8A%BD%E8%B1%A1%E8%A1%A8%E7%8F%BE%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>抽象表現主義</t>
+    <t>抽象表现主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A4%BE%E4%BC%9A%E9%97%AE%E9%A2%98</t>
@@ -1151,19 +1148,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%94%AF%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>美國槍支政治</t>
+    <t>美国枪支政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%9E%9D%E6%9A%B4%E5%8A%9B%E5%95%8F%E9%A1%8C</t>
   </si>
   <si>
-    <t>美國槍枝暴力問題</t>
+    <t>美国枪枝暴力问题</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%86%AB%E7%99%82%E6%94%B9%E9%9D%A9</t>
   </si>
   <si>
-    <t>美國醫療改革</t>
+    <t>美国医疗改革</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E6%9D%83</t>
@@ -1175,7 +1172,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%A2%A8%E9%82%8A%E7%95%8C</t>
   </si>
   <si>
-    <t>美墨邊界</t>
+    <t>美墨边界</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9A%84%E8%82%A5%E8%83%96%E9%97%AE%E9%A2%98</t>
@@ -6314,7 +6311,7 @@
         <v>329</v>
       </c>
       <c r="F165" t="s">
-        <v>330</v>
+        <v>276</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6340,10 +6337,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>330</v>
+      </c>
+      <c r="F166" t="s">
         <v>331</v>
-      </c>
-      <c r="F166" t="s">
-        <v>332</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6369,10 +6366,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>332</v>
+      </c>
+      <c r="F167" t="s">
         <v>333</v>
-      </c>
-      <c r="F167" t="s">
-        <v>334</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6398,10 +6395,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>334</v>
+      </c>
+      <c r="F168" t="s">
         <v>335</v>
-      </c>
-      <c r="F168" t="s">
-        <v>336</v>
       </c>
       <c r="G168" t="n">
         <v>3</v>
@@ -6427,10 +6424,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>336</v>
+      </c>
+      <c r="F169" t="s">
         <v>337</v>
-      </c>
-      <c r="F169" t="s">
-        <v>338</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6456,10 +6453,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>338</v>
+      </c>
+      <c r="F170" t="s">
         <v>339</v>
-      </c>
-      <c r="F170" t="s">
-        <v>340</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6485,10 +6482,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>340</v>
+      </c>
+      <c r="F171" t="s">
         <v>341</v>
-      </c>
-      <c r="F171" t="s">
-        <v>342</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6514,10 +6511,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>342</v>
+      </c>
+      <c r="F172" t="s">
         <v>343</v>
-      </c>
-      <c r="F172" t="s">
-        <v>344</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6543,10 +6540,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>344</v>
+      </c>
+      <c r="F173" t="s">
         <v>345</v>
-      </c>
-      <c r="F173" t="s">
-        <v>346</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6572,10 +6569,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>346</v>
+      </c>
+      <c r="F174" t="s">
         <v>347</v>
-      </c>
-      <c r="F174" t="s">
-        <v>348</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6601,10 +6598,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>348</v>
+      </c>
+      <c r="F175" t="s">
         <v>349</v>
-      </c>
-      <c r="F175" t="s">
-        <v>350</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6630,10 +6627,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>350</v>
+      </c>
+      <c r="F176" t="s">
         <v>351</v>
-      </c>
-      <c r="F176" t="s">
-        <v>352</v>
       </c>
       <c r="G176" t="n">
         <v>4</v>
@@ -6659,10 +6656,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>352</v>
+      </c>
+      <c r="F177" t="s">
         <v>353</v>
-      </c>
-      <c r="F177" t="s">
-        <v>354</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6688,10 +6685,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
+        <v>354</v>
+      </c>
+      <c r="F178" t="s">
         <v>355</v>
-      </c>
-      <c r="F178" t="s">
-        <v>356</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6717,10 +6714,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
+        <v>356</v>
+      </c>
+      <c r="F179" t="s">
         <v>357</v>
-      </c>
-      <c r="F179" t="s">
-        <v>358</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6746,10 +6743,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
+        <v>358</v>
+      </c>
+      <c r="F180" t="s">
         <v>359</v>
-      </c>
-      <c r="F180" t="s">
-        <v>360</v>
       </c>
       <c r="G180" t="n">
         <v>6</v>
@@ -6775,10 +6772,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
+        <v>360</v>
+      </c>
+      <c r="F181" t="s">
         <v>361</v>
-      </c>
-      <c r="F181" t="s">
-        <v>362</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -6804,10 +6801,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>362</v>
+      </c>
+      <c r="F182" t="s">
         <v>363</v>
-      </c>
-      <c r="F182" t="s">
-        <v>364</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -6833,10 +6830,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
+        <v>364</v>
+      </c>
+      <c r="F183" t="s">
         <v>365</v>
-      </c>
-      <c r="F183" t="s">
-        <v>366</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -6862,10 +6859,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
+        <v>366</v>
+      </c>
+      <c r="F184" t="s">
         <v>367</v>
-      </c>
-      <c r="F184" t="s">
-        <v>368</v>
       </c>
       <c r="G184" t="n">
         <v>4</v>
@@ -6891,10 +6888,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
+        <v>368</v>
+      </c>
+      <c r="F185" t="s">
         <v>369</v>
-      </c>
-      <c r="F185" t="s">
-        <v>370</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -6920,10 +6917,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>370</v>
+      </c>
+      <c r="F186" t="s">
         <v>371</v>
-      </c>
-      <c r="F186" t="s">
-        <v>372</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -6949,10 +6946,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
+        <v>372</v>
+      </c>
+      <c r="F187" t="s">
         <v>373</v>
-      </c>
-      <c r="F187" t="s">
-        <v>374</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -6978,10 +6975,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
+        <v>374</v>
+      </c>
+      <c r="F188" t="s">
         <v>375</v>
-      </c>
-      <c r="F188" t="s">
-        <v>376</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7007,10 +7004,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
+        <v>376</v>
+      </c>
+      <c r="F189" t="s">
         <v>377</v>
-      </c>
-      <c r="F189" t="s">
-        <v>378</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7036,10 +7033,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
+        <v>378</v>
+      </c>
+      <c r="F190" t="s">
         <v>379</v>
-      </c>
-      <c r="F190" t="s">
-        <v>380</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7065,10 +7062,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
+        <v>380</v>
+      </c>
+      <c r="F191" t="s">
         <v>381</v>
-      </c>
-      <c r="F191" t="s">
-        <v>382</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7094,10 +7091,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
+        <v>382</v>
+      </c>
+      <c r="F192" t="s">
         <v>383</v>
-      </c>
-      <c r="F192" t="s">
-        <v>384</v>
       </c>
       <c r="G192" t="n">
         <v>2</v>
@@ -7123,10 +7120,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
+        <v>384</v>
+      </c>
+      <c r="F193" t="s">
         <v>385</v>
-      </c>
-      <c r="F193" t="s">
-        <v>386</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7152,10 +7149,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
+        <v>386</v>
+      </c>
+      <c r="F194" t="s">
         <v>387</v>
-      </c>
-      <c r="F194" t="s">
-        <v>388</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7181,10 +7178,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
+        <v>388</v>
+      </c>
+      <c r="F195" t="s">
         <v>389</v>
-      </c>
-      <c r="F195" t="s">
-        <v>390</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
